--- a/target/classes/demoTicket.xlsx
+++ b/target/classes/demoTicket.xlsx
@@ -76,7 +76,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">

--- a/target/classes/demoTicket.xlsx
+++ b/target/classes/demoTicket.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>kek</t>
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -76,7 +82,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -86,6 +92,12 @@
       <c r="D8" t="n">
         <v>96.0</v>
       </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/target/classes/demoTicket.xlsx
+++ b/target/classes/demoTicket.xlsx
@@ -20,10 +20,10 @@
     <t>w</t>
   </si>
   <si>
-    <t>location</t>
+    <t>location 35</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name 35</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="8">

--- a/target/classes/demoTicket.xlsx
+++ b/target/classes/demoTicket.xlsx
@@ -20,10 +20,10 @@
     <t>w</t>
   </si>
   <si>
-    <t>location 35</t>
+    <t>location 9</t>
   </si>
   <si>
-    <t>name 35</t>
+    <t>name 9</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>35.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">

--- a/target/classes/demoTicket.xlsx
+++ b/target/classes/demoTicket.xlsx
@@ -20,10 +20,10 @@
     <t>w</t>
   </si>
   <si>
-    <t>location 9</t>
+    <t>location 4</t>
   </si>
   <si>
-    <t>name 9</t>
+    <t>name 4</t>
   </si>
 </sst>
 </file>

--- a/target/classes/demoTicket.xlsx
+++ b/target/classes/demoTicket.xlsx
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>kek</t>
+    <t>kekkk</t>
   </si>
   <si>
-    <t>w</t>
+    <t>www</t>
   </si>
   <si>
-    <t>location 4</t>
+    <t>location 22</t>
   </si>
   <si>
-    <t>name 4</t>
+    <t>name 22</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="8">

--- a/target/classes/demoTicket.xlsx
+++ b/target/classes/demoTicket.xlsx
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>kekkk</t>
+    <t>kekest</t>
   </si>
   <si>
-    <t>www</t>
+    <t>wuest</t>
   </si>
   <si>
-    <t>location 22</t>
+    <t>location 6</t>
   </si>
   <si>
-    <t>name 22</t>
+    <t>name 6</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
